--- a/conf-core/src/test/resources/dataloader/properties-fail-create.test.xlsx
+++ b/conf-core/src/test/resources/dataloader/properties-fail-create.test.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion lastEdited="4" lowestEdited="4" rupBuild="3820"/>
-  <workbookPr date1904="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\ess-git\ccdb\conf-core\src\test\resources\dataloader\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" windowWidth="10610" windowHeight="7370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10605" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="Properties" sheetId="1" r:id="rId1"/>
@@ -13,13 +18,13 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">#REF!</definedName>
     <definedName name="_xlnm.Sheet_Title" localSheetId="0">"Properties"</definedName>
   </definedNames>
-  <calcPr calcMode="auto" iterate="1" iterateCount="100" iterateDelta="0.001"/>
-  <webPublishing allowPng="1" css="0" codePage="1252"/>
+  <calcPr calcId="152511"/>
+  <webPublishing css="0" allowPng="1" codePage="1252"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8" count="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>CREATE</t>
   </si>
@@ -43,42 +48,140 @@
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2015/MAY/06</t>
+  </si>
+  <si>
+    <t>Total names</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>Create</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Template file to import properties in the CCDB</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>European Spallation Source (ESS)</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>License</t>
+  </si>
+  <si>
+    <t>LGPL3</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>OPERATION</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>DATA TYPE</t>
+  </si>
+  <si>
+    <t>UNIT</t>
+  </si>
+  <si>
+    <t>UNIQUENESS</t>
+  </si>
+  <si>
+    <t>FD</t>
+  </si>
+  <si>
+    <t>forces diagram</t>
+  </si>
+  <si>
+    <t>Diagram</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>Earth radius</t>
+  </si>
+  <si>
+    <t>kilometer</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>Help</t>
+  </si>
+  <si>
+    <t>https://ccdb.esss.lu.se/resources/help/ccdb_conventions.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <u val="none"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Sans"/>
-      <vertAlign val="baseline"/>
-      <sz val="10"/>
-      <strike val="0"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <u val="none"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <vertAlign val="baseline"/>
-      <sz val="11"/>
-      <strike val="0"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <u val="none"/>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <vertAlign val="baseline"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <strike val="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -96,21 +199,14 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="0" diagonalDown="0">
-      <left style="none">
-        <color rgb="FFC7C7C7"/>
-      </left>
-      <right style="none">
-        <color rgb="FFC7C7C7"/>
-      </right>
-      <top style="none">
-        <color rgb="FFC7C7C7"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FFC7C7C7"/>
-      </bottom>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
-    <border diagonalUp="0" diagonalDown="0">
+    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -123,314 +219,490 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="13">
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="49" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="2" fillId="2" borderId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="49" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="49" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="49" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="49" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="49" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:gnmx="http://www.gnumeric.org/ext/spreadsheetml">
-  <sheetPr>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
-  <dimension ref="A1:F39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21.95"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="1" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" style="2" width="14.999098557692308" customWidth="1"/>
-    <col min="3" max="3" style="2" width="33.71225961538462" customWidth="1"/>
-    <col min="4" max="4" style="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" style="2" width="14.142007211538463" customWidth="1"/>
-    <col min="6" max="6" style="3" width="26.426983173076927" customWidth="1"/>
-    <col min="7" max="16384" style="2" width="9.142307692307693"/>
+    <col min="1" max="1" width="30.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="2" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" customHeight="1" ht="21.95">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>2015/MAY/06</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Total names</t>
-        </is>
-      </c>
-      <c r="E1" t="e">
-        <f>SUMPRODUCT((B9:B65536&lt;&gt;"")/COUNTIF(B9:B65536,B9:B65536&amp;""))</f>
-        <v>#VALUE!</v>
+    <row r="1" spans="1:6" ht="21.95" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1">
+        <f>SUMPRODUCT((B10:B65537&lt;&gt;"")/COUNTIF(B10:B65537,B10:B65537&amp;""))</f>
+        <v>4</v>
       </c>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" customHeight="1" ht="21.95">
-      <c r="A2" s="4" t="inlineStr">
-        <is>
-          <t>Version</t>
-        </is>
-      </c>
-      <c r="B2" s="5" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>Create</t>
-        </is>
+    <row r="2" spans="1:6" ht="21.95" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E2">
-        <f>COUNTIF(A8:A65536,"CREATE")</f>
+        <f>COUNTIF(A9:A65537,"CREATE")</f>
         <v>4</v>
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" customHeight="1" ht="21.95">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Template file to import properties in the CCDB</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>Update</t>
-        </is>
+    <row r="3" spans="1:6" ht="21.95" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="E3">
-        <f>COUNTIF(A8:A65536,"UPDATE")</f>
+        <f>COUNTIF(A9:A65537,"UPDATE")</f>
         <v>0</v>
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" customHeight="1" ht="21.95">
-      <c r="A4" s="4" t="inlineStr">
-        <is>
-          <t>Copyright</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>European Spallation Source (ESS)</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>Delete</t>
-        </is>
+    <row r="4" spans="1:6" ht="21.95" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="E4">
-        <f>COUNTIF(A8:A65536,"DELETE")</f>
+        <f>COUNTIF(A9:A65537,"DELETE")</f>
         <v>0</v>
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" customHeight="1" ht="21.95">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>License</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>LGPL3</t>
-        </is>
+    <row r="5" spans="1:6" ht="21.95" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" customHeight="1" ht="21.95">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Production</t>
-        </is>
+    <row r="6" spans="1:6" ht="21.95" customHeight="1">
+      <c r="A6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" customHeight="1" ht="21.95">
-      <c r="A7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" customHeight="1" ht="21.95">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t>OPERATION</t>
-        </is>
-      </c>
-      <c r="B8" s="6" t="inlineStr">
-        <is>
-          <t>NAME</t>
-        </is>
-      </c>
-      <c r="C8" s="6" t="inlineStr">
-        <is>
-          <t>DESCRIPTION</t>
-        </is>
-      </c>
-      <c r="D8" s="6" t="inlineStr">
-        <is>
-          <t>DATA TYPE</t>
-        </is>
-      </c>
-      <c r="E8" s="6" t="inlineStr">
-        <is>
-          <t>UNIT</t>
-        </is>
-      </c>
-      <c r="F8" s="6" t="inlineStr">
-        <is>
-          <t>UNIQUENESS</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" spans="1:6" customHeight="1" ht="21.95">
-      <c r="A9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="8" t="inlineStr">
-        <is>
-          <t>FD</t>
-        </is>
-      </c>
-      <c r="C9" s="9" t="inlineStr">
-        <is>
-          <t>forces diagram</t>
-        </is>
-      </c>
-      <c r="D9" s="10" t="inlineStr">
-        <is>
-          <t>Diagram</t>
-        </is>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" customHeight="1" ht="21.95">
+    <row r="7" spans="1:6" s="12" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A7" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="21.95" customHeight="1">
+      <c r="A8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="21.95" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="21.95" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="8" t="inlineStr">
-        <is>
-          <t>ER</t>
-        </is>
-      </c>
-      <c r="C10" s="9" t="inlineStr">
-        <is>
-          <t>Earth radius</t>
-        </is>
+      <c r="B10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="11" t="inlineStr">
-        <is>
-          <t>kilometer</t>
-        </is>
+        <v>32</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>1</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" customHeight="1" ht="21.95">
+    <row r="11" spans="1:6" ht="21.95" customHeight="1">
       <c r="A11" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" customHeight="1" ht="21.95">
+    <row r="12" spans="1:6" ht="21.95" customHeight="1">
       <c r="A12" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="8" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="C12" s="9" t="inlineStr">
-        <is>
-          <t>as</t>
-        </is>
+      <c r="B12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>6</v>
@@ -438,19 +710,31 @@
       <c r="E12" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="21.95" customHeight="1">
+      <c r="A13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" customHeight="1" ht="21.95">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="1:6" customHeight="1" ht="21.95">
+    <row r="14" spans="1:6" ht="21.95" customHeight="1">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
@@ -458,7 +742,7 @@
       <c r="E14" s="11"/>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" customHeight="1" ht="21.95">
+    <row r="15" spans="1:6" ht="21.95" customHeight="1">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
@@ -466,7 +750,7 @@
       <c r="E15" s="11"/>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:6" customHeight="1" ht="21.95">
+    <row r="16" spans="1:6" ht="21.95" customHeight="1">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
@@ -474,7 +758,7 @@
       <c r="E16" s="11"/>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="1:6" customHeight="1" ht="21.95">
+    <row r="17" spans="1:6" ht="21.95" customHeight="1">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
@@ -482,7 +766,7 @@
       <c r="E17" s="11"/>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" spans="1:6" customHeight="1" ht="21.95">
+    <row r="18" spans="1:6" ht="21.95" customHeight="1">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
@@ -490,7 +774,7 @@
       <c r="E18" s="11"/>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="1:6" customHeight="1" ht="21.95">
+    <row r="19" spans="1:6" ht="21.95" customHeight="1">
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
@@ -498,7 +782,7 @@
       <c r="E19" s="11"/>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="1:6" customHeight="1" ht="21.95">
+    <row r="20" spans="1:6" ht="21.95" customHeight="1">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
@@ -506,7 +790,7 @@
       <c r="E20" s="11"/>
       <c r="F20" s="12"/>
     </row>
-    <row r="21" spans="1:6" customHeight="1" ht="21.95">
+    <row r="21" spans="1:6" ht="21.95" customHeight="1">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
@@ -514,7 +798,7 @@
       <c r="E21" s="11"/>
       <c r="F21" s="12"/>
     </row>
-    <row r="22" spans="1:6" customHeight="1" ht="21.95">
+    <row r="22" spans="1:6" ht="21.95" customHeight="1">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
@@ -522,7 +806,7 @@
       <c r="E22" s="11"/>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="1:6" customHeight="1" ht="21.95">
+    <row r="23" spans="1:6" ht="21.95" customHeight="1">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="9"/>
@@ -530,7 +814,7 @@
       <c r="E23" s="11"/>
       <c r="F23" s="12"/>
     </row>
-    <row r="24" spans="1:6" customHeight="1" ht="21.95">
+    <row r="24" spans="1:6" ht="21.95" customHeight="1">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
@@ -538,7 +822,7 @@
       <c r="E24" s="11"/>
       <c r="F24" s="12"/>
     </row>
-    <row r="25" spans="1:6" customHeight="1" ht="21.95">
+    <row r="25" spans="1:6" ht="21.95" customHeight="1">
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="9"/>
@@ -546,7 +830,7 @@
       <c r="E25" s="11"/>
       <c r="F25" s="12"/>
     </row>
-    <row r="26" spans="1:6" customHeight="1" ht="21.95">
+    <row r="26" spans="1:6" ht="21.95" customHeight="1">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
@@ -554,7 +838,7 @@
       <c r="E26" s="11"/>
       <c r="F26" s="12"/>
     </row>
-    <row r="27" spans="1:6" customHeight="1" ht="21.95">
+    <row r="27" spans="1:6" ht="21.95" customHeight="1">
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
@@ -562,7 +846,7 @@
       <c r="E27" s="11"/>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:6" customHeight="1" ht="21.95">
+    <row r="28" spans="1:6" ht="21.95" customHeight="1">
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>
@@ -570,7 +854,7 @@
       <c r="E28" s="11"/>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:6" customHeight="1" ht="21.95">
+    <row r="29" spans="1:6" ht="21.95" customHeight="1">
       <c r="A29" s="7"/>
       <c r="B29" s="8"/>
       <c r="C29" s="9"/>
@@ -578,7 +862,7 @@
       <c r="E29" s="11"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:6" customHeight="1" ht="21.95">
+    <row r="30" spans="1:6" ht="21.95" customHeight="1">
       <c r="A30" s="7"/>
       <c r="B30" s="8"/>
       <c r="C30" s="9"/>
@@ -586,7 +870,7 @@
       <c r="E30" s="11"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:6" customHeight="1" ht="21.95">
+    <row r="31" spans="1:6" ht="21.95" customHeight="1">
       <c r="A31" s="7"/>
       <c r="B31" s="8"/>
       <c r="C31" s="9"/>
@@ -594,7 +878,7 @@
       <c r="E31" s="11"/>
       <c r="F31" s="12"/>
     </row>
-    <row r="32" spans="1:6" customHeight="1" ht="21.95">
+    <row r="32" spans="1:6" ht="21.95" customHeight="1">
       <c r="A32" s="7"/>
       <c r="B32" s="8"/>
       <c r="C32" s="9"/>
@@ -602,7 +886,7 @@
       <c r="E32" s="11"/>
       <c r="F32" s="12"/>
     </row>
-    <row r="33" spans="1:6" customHeight="1" ht="21.95">
+    <row r="33" spans="1:6" ht="21.95" customHeight="1">
       <c r="A33" s="7"/>
       <c r="B33" s="8"/>
       <c r="C33" s="9"/>
@@ -610,7 +894,7 @@
       <c r="E33" s="11"/>
       <c r="F33" s="12"/>
     </row>
-    <row r="34" spans="1:6" customHeight="1" ht="21.95">
+    <row r="34" spans="1:6" ht="21.95" customHeight="1">
       <c r="A34" s="7"/>
       <c r="B34" s="8"/>
       <c r="C34" s="9"/>
@@ -618,7 +902,7 @@
       <c r="E34" s="11"/>
       <c r="F34" s="12"/>
     </row>
-    <row r="35" spans="1:6" customHeight="1" ht="21.95">
+    <row r="35" spans="1:6" ht="21.95" customHeight="1">
       <c r="A35" s="7"/>
       <c r="B35" s="8"/>
       <c r="C35" s="9"/>
@@ -626,7 +910,7 @@
       <c r="E35" s="11"/>
       <c r="F35" s="12"/>
     </row>
-    <row r="36" spans="1:6" customHeight="1" ht="21.95">
+    <row r="36" spans="1:6" ht="21.95" customHeight="1">
       <c r="A36" s="7"/>
       <c r="B36" s="8"/>
       <c r="C36" s="9"/>
@@ -634,7 +918,7 @@
       <c r="E36" s="11"/>
       <c r="F36" s="12"/>
     </row>
-    <row r="37" spans="1:6" customHeight="1" ht="21.95">
+    <row r="37" spans="1:6" ht="21.95" customHeight="1">
       <c r="A37" s="7"/>
       <c r="B37" s="8"/>
       <c r="C37" s="9"/>
@@ -642,7 +926,7 @@
       <c r="E37" s="11"/>
       <c r="F37" s="12"/>
     </row>
-    <row r="38" spans="1:6" customHeight="1" ht="21.95">
+    <row r="38" spans="1:6" ht="21.95" customHeight="1">
       <c r="A38" s="7"/>
       <c r="B38" s="8"/>
       <c r="C38" s="9"/>
@@ -650,7 +934,7 @@
       <c r="E38" s="11"/>
       <c r="F38" s="12"/>
     </row>
-    <row r="39" spans="1:6" customHeight="1" ht="21.95">
+    <row r="39" spans="1:6" ht="21.95" customHeight="1">
       <c r="A39" s="7"/>
       <c r="B39" s="8"/>
       <c r="C39" s="9"/>
@@ -658,42 +942,52 @@
       <c r="E39" s="11"/>
       <c r="F39" s="12"/>
     </row>
+    <row r="40" spans="1:6" ht="21.95" customHeight="1">
+      <c r="A40" s="7"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="12"/>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
   <dataValidations count="9">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="" prompt="Lorem Ipsum" sqref="A8:F8"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9:A39">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Lorem Ipsum" sqref="A9:F9"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10:A40">
       <formula1>"CREATE,UPDATE,DELETE,END"</formula1>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" errorTitle="Invalid length" error="The property name must be between 1 and 64 characters long." showInputMessage="1" showErrorMessage="1" sqref="B9:B39">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid length" error="The property name must be between 1 and 64 characters long." sqref="B10:B40">
       <formula1>1</formula1>
       <formula2>64</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" errorTitle="Invalid length" error="The property description must be between 1 and 64 characters long." showInputMessage="1" showErrorMessage="1" sqref="C9:C39">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid length" error="The property description must be between 1 and 64 characters long." sqref="C10:C40">
       <formula1>1</formula1>
       <formula2>255</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" errorTitle="Invalid length" error="The data type name must be between 1 and 64 characters long." showInputMessage="1" showErrorMessage="1" sqref="D9:D39">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid length" error="The data type name must be between 1 and 64 characters long." sqref="D10:D40">
       <formula1>1</formula1>
       <formula2>64</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" errorTitle="Invalid length" error="The unit name must be between 1 and 32 characters long." showInputMessage="1" showErrorMessage="1" sqref="E9:E11 E12:F12 E13:E39">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid length" error="The unit name must be between 1 and 32 characters long." sqref="E10:E12 E13:F13 E14:E40">
       <formula1>1</formula1>
       <formula2>32</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F11 F13:F39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:F12 F14:F40">
       <formula1>"UNIVERSAL,TYPE,NONE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A40:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A41:A1048576">
       <formula1>"CREATE,UPDATE,DELETE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F40:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F41:F1048576">
       <formula1>"NONE,TYPE,UNIVERSAL"</formula1>
     </dataValidation>
   </dataValidations>
-  <printOptions/>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup blackAndWhite="0" cellComments="asDisplayed" draft="0" errors="displayed" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0"/>
+  <pageSetup paperSize="9" orientation="portrait" cellComments="asDisplayed"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
